--- a/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
+++ b/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,6 +495,46 @@
         <v>-75.62085122845035</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>12.96790713452696</v>
+      </c>
+      <c r="B6">
+        <v>23.17881235783363</v>
+      </c>
+      <c r="C6">
+        <v>115.6171246901901</v>
+      </c>
+      <c r="D6">
+        <v>452.4269022430744</v>
+      </c>
+      <c r="E6">
+        <v>561.8868185332321</v>
+      </c>
+      <c r="F6">
+        <v>-76.25714383016968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>12.49075157982063</v>
+      </c>
+      <c r="B7">
+        <v>46.45365119211827</v>
+      </c>
+      <c r="C7">
+        <v>121.4719825311136</v>
+      </c>
+      <c r="D7">
+        <v>457.7510631941186</v>
+      </c>
+      <c r="E7">
+        <v>565.3869693627275</v>
+      </c>
+      <c r="F7">
+        <v>-75.01833133899537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
+++ b/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,42 +497,122 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>12.96790713452696</v>
+        <v>13.33330512813063</v>
       </c>
       <c r="B6">
-        <v>23.17881235783363</v>
+        <v>23.23812149138542</v>
       </c>
       <c r="C6">
-        <v>115.6171246901901</v>
+        <v>112.5611750070751</v>
       </c>
       <c r="D6">
-        <v>452.4269022430744</v>
+        <v>461.9394090236165</v>
       </c>
       <c r="E6">
-        <v>561.8868185332321</v>
+        <v>565.4445885628156</v>
       </c>
       <c r="F6">
-        <v>-76.25714383016968</v>
+        <v>-74.78530774244992</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>12.49075157982063</v>
+        <v>13.22660386616564</v>
       </c>
       <c r="B7">
-        <v>46.45365119211827</v>
+        <v>24.02132214798754</v>
       </c>
       <c r="C7">
-        <v>121.4719825311136</v>
+        <v>107.4813767596888</v>
       </c>
       <c r="D7">
-        <v>457.7510631941186</v>
+        <v>463.6560478944011</v>
       </c>
       <c r="E7">
-        <v>565.3869693627275</v>
+        <v>555.8949135409275</v>
       </c>
       <c r="F7">
-        <v>-75.01833133899537</v>
+        <v>-75.30369415539299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>13.71958389322772</v>
+      </c>
+      <c r="B8">
+        <v>27.05978883750763</v>
+      </c>
+      <c r="C8">
+        <v>100.246521378681</v>
+      </c>
+      <c r="D8">
+        <v>450.5196701713212</v>
+      </c>
+      <c r="E8">
+        <v>557.5907650408481</v>
+      </c>
+      <c r="F8">
+        <v>-73.18673254117338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>12.84378546350357</v>
+      </c>
+      <c r="B9">
+        <v>31.79607142355369</v>
+      </c>
+      <c r="C9">
+        <v>104.1225452890714</v>
+      </c>
+      <c r="D9">
+        <v>444.6890947432694</v>
+      </c>
+      <c r="E9">
+        <v>562.1952682883275</v>
+      </c>
+      <c r="F9">
+        <v>-72.32647386551766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>13.89207105740258</v>
+      </c>
+      <c r="B10">
+        <v>22.92221659599644</v>
+      </c>
+      <c r="C10">
+        <v>113.5869327790045</v>
+      </c>
+      <c r="D10">
+        <v>459.9745572941029</v>
+      </c>
+      <c r="E10">
+        <v>541.2122550709246</v>
+      </c>
+      <c r="F10">
+        <v>-75.38354527762995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>13.89225222573867</v>
+      </c>
+      <c r="B11">
+        <v>22.39949495217117</v>
+      </c>
+      <c r="C11">
+        <v>103.0250536722007</v>
+      </c>
+      <c r="D11">
+        <v>465.9835464652424</v>
+      </c>
+      <c r="E11">
+        <v>554.2765693533802</v>
+      </c>
+      <c r="F11">
+        <v>-74.13580302700376</v>
       </c>
     </row>
   </sheetData>

--- a/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
+++ b/GA_bNa_bCa_NaK/AP_features_CTRL.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,6 +615,106 @@
         <v>-74.13580302700376</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12.64878580465844</v>
+      </c>
+      <c r="B12">
+        <v>37.1688747874742</v>
+      </c>
+      <c r="C12">
+        <v>109.987974411554</v>
+      </c>
+      <c r="D12">
+        <v>443.7896015065489</v>
+      </c>
+      <c r="E12">
+        <v>559.8964567365329</v>
+      </c>
+      <c r="F12">
+        <v>-72.81909962407983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>13.71458918638573</v>
+      </c>
+      <c r="B13">
+        <v>30.02891932358729</v>
+      </c>
+      <c r="C13">
+        <v>103.2841396289908</v>
+      </c>
+      <c r="D13">
+        <v>453.4882932086111</v>
+      </c>
+      <c r="E13">
+        <v>573.1057809565245</v>
+      </c>
+      <c r="F13">
+        <v>-73.25522030540353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12.24702666504616</v>
+      </c>
+      <c r="B14">
+        <v>14.48693610184883</v>
+      </c>
+      <c r="C14">
+        <v>100.6287397436588</v>
+      </c>
+      <c r="D14">
+        <v>440.8150999622594</v>
+      </c>
+      <c r="E14">
+        <v>565.2059495087742</v>
+      </c>
+      <c r="F14">
+        <v>-73.92530244351831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12.74759560907786</v>
+      </c>
+      <c r="B15">
+        <v>25.35800932604061</v>
+      </c>
+      <c r="C15">
+        <v>98.64728207382359</v>
+      </c>
+      <c r="D15">
+        <v>457.0369985249417</v>
+      </c>
+      <c r="E15">
+        <v>561.8358714662754</v>
+      </c>
+      <c r="F15">
+        <v>-73.28927274778297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12.95625511634274</v>
+      </c>
+      <c r="B16">
+        <v>26.75314777342638</v>
+      </c>
+      <c r="C16">
+        <v>104.7531722969622</v>
+      </c>
+      <c r="D16">
+        <v>450.2104789498044</v>
+      </c>
+      <c r="E16">
+        <v>565.554941632603</v>
+      </c>
+      <c r="F16">
+        <v>-74.12499982884675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
